--- a/simulation results/standard deviation results.xlsx
+++ b/simulation results/standard deviation results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices/simulation results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE807D2-D559-0247-A0A0-F0EB531808B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D9AE03-1373-FF45-9213-5D10DBDE41CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{22FB72CD-E3E5-6345-A9B5-87EBA003B620}"/>
+    <workbookView xWindow="240" yWindow="2700" windowWidth="30520" windowHeight="19980" activeTab="2" xr2:uid="{22FB72CD-E3E5-6345-A9B5-87EBA003B620}"/>
   </bookViews>
   <sheets>
     <sheet name="original model" sheetId="1" r:id="rId1"/>
     <sheet name="high reliabiity model" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="38">
-  <si>
-    <t>&gt; sd.orig.mod</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="38">
   <si>
     <t>$n150</t>
   </si>
@@ -102,9 +100,6 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>&gt; sd.high.mod</t>
-  </si>
-  <si>
     <t>rmsea.default</t>
   </si>
   <si>
@@ -151,6 +146,12 @@
   </si>
   <si>
     <t>srmr.adj.str.obs.tri</t>
+  </si>
+  <si>
+    <t>sd.orig.mod</t>
+  </si>
+  <si>
+    <t>sd.high.mod</t>
   </si>
 </sst>
 </file>
@@ -506,3350 +507,3344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BDE05D-FE5B-3440-ABFC-CD6C80B139D0}">
-  <dimension ref="A53:G210"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView topLeftCell="A77" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.9200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.1197</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1293</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.1198</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.11169999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1201</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1152</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1293</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.1198</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.121</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.1472</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1406</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.11940000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.1138</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1071</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.1216</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1206</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.1133</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1293</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.1229</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.122</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.1172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.1358</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1384</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.09E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.1123</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.1208</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.13159999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.1123</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.1208</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.13159999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.1198</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1201</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1542</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.154</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.17349999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1076</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1045</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.1227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.32E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.12E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.84E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.34E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.29E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.0900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.1036</v>
+      </c>
+      <c r="E31" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8.7800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.1036</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9.4899999999999998E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8.8499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.1075</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.1018</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.1089</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.1009</v>
+      </c>
+      <c r="G33" s="1">
+        <v>9.1800000000000007E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8.7900000000000006E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8.5500000000000007E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.0300000000000005E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.1045</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9.74E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.1084</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.1031</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.1132</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.1037</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.1055</v>
+      </c>
+      <c r="G36" s="1">
+        <v>9.6500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>6.88E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7.5499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7.46E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>9.4700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3.61E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7.46E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.4700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5.96E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.1019</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.1119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3.85E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>8.5199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>7.17E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9.1700000000000004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.78E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1.83E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.63E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.41E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.35E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.29E-2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.64E-2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2.7300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2.63E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1">
-        <v>0.10970000000000001</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="C56" s="1">
-        <v>9.7500000000000003E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>0.104</v>
+        <v>5.8400000000000001E-2</v>
       </c>
       <c r="E56" s="1">
-        <v>9.4700000000000006E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="F56" s="1">
-        <v>9.4299999999999995E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="G56" s="1">
-        <v>8.9200000000000002E-2</v>
+        <v>5.1700000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>0.1198</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="C57" s="1">
-        <v>0.1132</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="D57" s="1">
-        <v>0.12909999999999999</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="E57" s="1">
-        <v>0.1183</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="F57" s="1">
-        <v>0.1196</v>
+        <v>6.7900000000000002E-2</v>
       </c>
       <c r="G57" s="1">
-        <v>0.1115</v>
+        <v>6.0699999999999997E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1">
-        <v>0.1203</v>
+        <v>6.4600000000000005E-2</v>
       </c>
       <c r="C58" s="1">
-        <v>0.1153</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="D58" s="1">
-        <v>0.12920000000000001</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="E58" s="1">
-        <v>0.1196</v>
+        <v>6.6199999999999995E-2</v>
       </c>
       <c r="F58" s="1">
-        <v>0.1208</v>
+        <v>6.83E-2</v>
       </c>
       <c r="G58" s="1">
-        <v>0.11260000000000001</v>
+        <v>6.1100000000000002E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" s="1">
-        <v>0.14710000000000001</v>
+        <v>7.1599999999999997E-2</v>
       </c>
       <c r="C59" s="1">
-        <v>0.1358</v>
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>0.1404</v>
+        <v>7.5399999999999995E-2</v>
       </c>
       <c r="E59" s="1">
-        <v>0.12709999999999999</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="F59" s="1">
-        <v>0.13009999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G59" s="1">
-        <v>0.1191</v>
+        <v>6.2799999999999995E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1">
-        <v>0.11409999999999999</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="C60" s="1">
-        <v>0.1074</v>
+        <v>6.54E-2</v>
       </c>
       <c r="D60" s="1">
-        <v>0.12989999999999999</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="E60" s="1">
-        <v>0.1215</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="F60" s="1">
-        <v>0.1205</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="G60" s="1">
-        <v>0.1157</v>
+        <v>6.1699999999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1">
-        <v>0.1135</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="C61" s="1">
-        <v>0.1095</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="D61" s="1">
-        <v>0.12920000000000001</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="E61" s="1">
-        <v>0.1227</v>
+        <v>6.7400000000000002E-2</v>
       </c>
       <c r="F61" s="1">
-        <v>0.12189999999999999</v>
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="G61" s="1">
-        <v>0.11700000000000001</v>
+        <v>6.2199999999999998E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1">
-        <v>0.1527</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C62" s="1">
-        <v>0.1406</v>
+        <v>7.1900000000000006E-2</v>
       </c>
       <c r="D62" s="1">
-        <v>0.1482</v>
+        <v>7.7299999999999994E-2</v>
       </c>
       <c r="E62" s="1">
-        <v>0.13550000000000001</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="F62" s="1">
-        <v>0.13819999999999999</v>
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.12720000000000001</v>
+        <v>6.4799999999999996E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" s="1">
-        <v>6.3399999999999998E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="C63" s="1">
-        <v>6.5600000000000006E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="D63" s="1">
-        <v>7.9799999999999996E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="E63" s="1">
-        <v>8.5900000000000004E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="F63" s="1">
-        <v>8.09E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="G63" s="1">
-        <v>9.2399999999999996E-2</v>
+        <v>5.67E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="1">
-        <v>8.1100000000000005E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="C64" s="1">
-        <v>8.2799999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D64" s="1">
-        <v>0.11210000000000001</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="E64" s="1">
-        <v>0.1206</v>
+        <v>5.67E-2</v>
       </c>
       <c r="F64" s="1">
-        <v>0.1125</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="G64" s="1">
-        <v>0.1313</v>
+        <v>6.4399999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" s="1">
-        <v>5.57E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="C65" s="1">
-        <v>5.96E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="D65" s="1">
-        <v>8.1500000000000003E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="E65" s="1">
-        <v>9.1899999999999996E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F65" s="1">
-        <v>8.4199999999999997E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>0.1017</v>
+        <v>6.0400000000000002E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1">
-        <v>8.1100000000000005E-2</v>
+        <v>2.53E-2</v>
       </c>
       <c r="C66" s="1">
-        <v>8.2799999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D66" s="1">
-        <v>0.11210000000000001</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="E66" s="1">
-        <v>0.1206</v>
+        <v>5.67E-2</v>
       </c>
       <c r="F66" s="1">
-        <v>0.1125</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>0.1313</v>
+        <v>6.4399999999999999E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="1">
-        <v>0.11940000000000001</v>
+        <v>2.6100000000000002E-2</v>
       </c>
       <c r="C67" s="1">
-        <v>0.11990000000000001</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="D67" s="1">
-        <v>0.15379999999999999</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="E67" s="1">
-        <v>0.1605</v>
+        <v>5.9799999999999999E-2</v>
       </c>
       <c r="F67" s="1">
-        <v>0.15359999999999999</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="G67" s="1">
-        <v>0.1729</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1">
-        <v>5.4199999999999998E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="C68" s="1">
-        <v>5.79E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="D68" s="1">
-        <v>8.3199999999999996E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="E68" s="1">
-        <v>9.6100000000000005E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="F68" s="1">
-        <v>8.5800000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>0.1075</v>
+        <v>6.1800000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1">
-        <v>7.9200000000000007E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="C69" s="1">
-        <v>0.08</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="D69" s="1">
-        <v>0.1023</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="E69" s="1">
-        <v>0.112</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="F69" s="1">
-        <v>0.1043</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="G69" s="1">
-        <v>0.12239999999999999</v>
+        <v>6.4299999999999996E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C70" s="1">
         <v>1.32E-2</v>
       </c>
-      <c r="C70" s="1">
-        <v>1.7399999999999999E-2</v>
-      </c>
       <c r="D70" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E70" s="1">
-        <v>2.01E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="F70" s="1">
-        <v>1.9900000000000001E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="G70" s="1">
-        <v>2.2200000000000001E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71" s="1">
-        <v>1.5800000000000002E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="C71" s="1">
-        <v>1.9699999999999999E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="D71" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E71" s="1">
-        <v>2.12E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="F71" s="1">
-        <v>2.12E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="G71" s="1">
-        <v>2.3099999999999999E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="1">
-        <v>1.5599999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C72" s="1">
-        <v>1.9400000000000001E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="D72" s="1">
-        <v>1.77E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="E72" s="1">
-        <v>2.0799999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F72" s="1">
-        <v>2.0899999999999998E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="G72" s="1">
-        <v>2.2800000000000001E-2</v>
+        <v>1.66E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1">
-        <v>8.5000000000000006E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="C73" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="D73" s="1">
-        <v>2.1000000000000001E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="E73" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>2.12E-2</v>
       </c>
       <c r="F73" s="1">
-        <v>2.4500000000000001E-2</v>
+        <v>2.24E-2</v>
       </c>
       <c r="G73" s="1">
-        <v>3.2099999999999997E-2</v>
+        <v>2.29E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1">
-        <v>1.84E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="C74" s="1">
-        <v>2.63E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="D74" s="1">
-        <v>2.5899999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="E74" s="1">
-        <v>2.9899999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="F74" s="1">
-        <v>3.0700000000000002E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="G74" s="1">
-        <v>3.1699999999999999E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1">
-        <v>4.8999999999999998E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="C75" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="D75" s="1">
-        <v>1.52E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E75" s="1">
-        <v>2.12E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="F75" s="1">
-        <v>1.9800000000000002E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="G75" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>2.3199999999999998E-2</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="C76" s="1">
-        <v>1.0500000000000001E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="D76" s="1">
-        <v>1.5699999999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="E76" s="1">
-        <v>1.9699999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F76" s="1">
-        <v>1.7299999999999999E-2</v>
+        <v>2.2599999999999999E-2</v>
       </c>
       <c r="G76" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B77" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="C77" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="D77" s="1">
-        <v>2.5999999999999999E-2</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E77" s="1">
-        <v>3.1099999999999999E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="F77" s="1">
-        <v>3.1199999999999999E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="G77" s="1">
-        <v>3.3099999999999997E-2</v>
+        <v>2.01E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C78" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="D78" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="E78" s="1">
-        <v>1.34E-2</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="F78" s="1">
-        <v>1.29E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G78" s="1">
-        <v>1.7100000000000001E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1">
-        <v>8.3699999999999997E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="C82" s="1">
-        <v>7.3499999999999996E-2</v>
+        <v>3.4700000000000002E-2</v>
       </c>
       <c r="D82" s="1">
-        <v>8.1900000000000001E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="E82" s="1">
-        <v>7.4899999999999994E-2</v>
+        <v>3.7900000000000003E-2</v>
       </c>
       <c r="F82" s="1">
-        <v>7.3499999999999996E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="G82" s="1">
-        <v>7.0900000000000005E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1">
-        <v>9.1800000000000007E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="C83" s="1">
-        <v>8.8999999999999996E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="D83" s="1">
-        <v>0.10349999999999999</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="E83" s="1">
-        <v>9.3799999999999994E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="F83" s="1">
-        <v>9.5399999999999999E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="G83" s="1">
-        <v>8.77E-2</v>
+        <v>4.0099999999999997E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B84" s="1">
-        <v>9.2200000000000004E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="C84" s="1">
-        <v>0.09</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="D84" s="1">
-        <v>0.10349999999999999</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="E84" s="1">
-        <v>9.4700000000000006E-2</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="F84" s="1">
-        <v>9.6199999999999994E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G84" s="1">
-        <v>8.8400000000000006E-2</v>
+        <v>4.02E-2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B85" s="1">
-        <v>0.1075</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="C85" s="1">
-        <v>0.1017</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="D85" s="1">
-        <v>0.10879999999999999</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="E85" s="1">
-        <v>9.8400000000000001E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="F85" s="1">
-        <v>0.1007</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="G85" s="1">
-        <v>9.1700000000000004E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>4.1700000000000001E-2</v>
       </c>
       <c r="C86" s="1">
-        <v>8.5599999999999996E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D86" s="1">
-        <v>0.1048</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E86" s="1">
-        <v>9.6500000000000002E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F86" s="1">
-        <v>9.7000000000000003E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="G86" s="1">
-        <v>9.0200000000000002E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B87" s="1">
-        <v>8.7999999999999995E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="C87" s="1">
-        <v>8.6300000000000002E-2</v>
+        <v>4.87E-2</v>
       </c>
       <c r="D87" s="1">
-        <v>0.10440000000000001</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E87" s="1">
-        <v>9.7199999999999995E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="F87" s="1">
-        <v>9.7600000000000006E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="G87" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B88" s="1">
-        <v>0.1084</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="C88" s="1">
-        <v>0.1031</v>
+        <v>5.0599999999999999E-2</v>
       </c>
       <c r="D88" s="1">
-        <v>0.11310000000000001</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="E88" s="1">
-        <v>0.10349999999999999</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="F88" s="1">
-        <v>0.1053</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="G88" s="1">
-        <v>9.6299999999999997E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B89" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="C89" s="1">
-        <v>4.5100000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="D89" s="1">
-        <v>6.1400000000000003E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="E89" s="1">
-        <v>6.88E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="F89" s="1">
-        <v>6.2199999999999998E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="G89" s="1">
-        <v>7.5499999999999998E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" s="1">
-        <v>4.4600000000000001E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="C90" s="1">
-        <v>4.7600000000000003E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="D90" s="1">
-        <v>7.3700000000000002E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="E90" s="1">
-        <v>8.5300000000000001E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="F90" s="1">
-        <v>7.4499999999999997E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="G90" s="1">
-        <v>9.4600000000000004E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B91" s="1">
-        <v>3.6200000000000003E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="C91" s="1">
-        <v>3.9800000000000002E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D91" s="1">
-        <v>6.2399999999999997E-2</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="E91" s="1">
-        <v>7.3300000000000004E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F91" s="1">
-        <v>6.4399999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G91" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1">
-        <v>4.4600000000000001E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="C92" s="1">
-        <v>4.7600000000000003E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="D92" s="1">
-        <v>7.3700000000000002E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="E92" s="1">
-        <v>8.5300000000000001E-2</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="F92" s="1">
-        <v>7.4499999999999997E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="G92" s="1">
-        <v>9.4600000000000004E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1">
-        <v>5.9499999999999997E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="C93" s="1">
-        <v>6.0100000000000001E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="D93" s="1">
-        <v>9.11E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E93" s="1">
-        <v>0.1017</v>
+        <v>3.7400000000000003E-2</v>
       </c>
       <c r="F93" s="1">
-        <v>9.06E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="G93" s="1">
-        <v>0.11169999999999999</v>
+        <v>4.3700000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1">
-        <v>3.5200000000000002E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="C94" s="1">
-        <v>3.8600000000000002E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="D94" s="1">
-        <v>6.3399999999999998E-2</v>
+        <v>2.81E-2</v>
       </c>
       <c r="E94" s="1">
-        <v>7.5399999999999995E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="F94" s="1">
-        <v>6.5299999999999997E-2</v>
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="G94" s="1">
-        <v>8.5099999999999995E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="C95" s="1">
-        <v>4.7800000000000002E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="D95" s="1">
-        <v>7.0099999999999996E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="E95" s="1">
-        <v>8.1600000000000006E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="F95" s="1">
-        <v>7.17E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G95" s="1">
-        <v>9.1600000000000001E-2</v>
+        <v>4.36E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C96" s="1">
-        <v>1.55E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="D96" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="E96" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F96" s="1">
-        <v>1.78E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="G96" s="1">
-        <v>1.9599999999999999E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" s="1">
-        <v>1.4E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="C97" s="1">
-        <v>1.7399999999999999E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="D97" s="1">
-        <v>1.6E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="E97" s="1">
-        <v>1.8599999999999998E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="F97" s="1">
-        <v>1.8800000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="G97" s="1">
-        <v>2.0299999999999999E-2</v>
+        <v>1.35E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B98" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="C98" s="1">
-        <v>1.72E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D98" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="E98" s="1">
-        <v>1.83E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="F98" s="1">
-        <v>1.8499999999999999E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="G98" s="1">
-        <v>0.02</v>
+        <v>1.34E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99" s="1">
-        <v>9.9000000000000008E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="C99" s="1">
-        <v>1.72E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="D99" s="1">
-        <v>2.1899999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E99" s="1">
-        <v>2.75E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="F99" s="1">
-        <v>2.63E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="G99" s="1">
-        <v>3.09E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B100" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="C100" s="1">
-        <v>2.3599999999999999E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D100" s="1">
-        <v>2.2800000000000001E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="E100" s="1">
-        <v>2.5499999999999998E-2</v>
+        <v>1.35E-2</v>
       </c>
       <c r="F100" s="1">
-        <v>2.63E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="G100" s="1">
-        <v>2.63E-2</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B101" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="C101" s="1">
-        <v>1.55E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="D101" s="1">
-        <v>1.9599999999999999E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E101" s="1">
-        <v>2.5899999999999999E-2</v>
+        <v>1.37E-2</v>
       </c>
       <c r="F101" s="1">
-        <v>2.46E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G101" s="1">
-        <v>2.9600000000000001E-2</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B102" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="C102" s="1">
-        <v>1.41E-2</v>
+        <v>1.6299999999999999E-2</v>
       </c>
       <c r="D102" s="1">
-        <v>1.9800000000000002E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="E102" s="1">
-        <v>2.5399999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F102" s="1">
-        <v>2.35E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="G102" s="1">
-        <v>2.9399999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B103" s="1">
-        <v>1.54E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="C103" s="1">
-        <v>2.29E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="D103" s="1">
-        <v>2.3199999999999998E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E103" s="1">
-        <v>2.64E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="F103" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="G103" s="1">
-        <v>2.7300000000000001E-2</v>
+        <v>1.47E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B104" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C104" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="D104" s="1">
-        <v>1.5699999999999999E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E104" s="1">
-        <v>2.2200000000000001E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="F104" s="1">
-        <v>2.0899999999999998E-2</v>
+        <v>1.52E-2</v>
       </c>
       <c r="G104" s="1">
-        <v>2.63E-2</v>
+        <v>1.49E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B108" s="1">
-        <v>5.8299999999999998E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="C108" s="1">
-        <v>5.1900000000000002E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="D108" s="1">
-        <v>5.8400000000000001E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="E108" s="1">
-        <v>5.45E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F108" s="1">
-        <v>5.2499999999999998E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="G108" s="1">
-        <v>5.1700000000000003E-2</v>
+        <v>2.81E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="1">
-        <v>6.4699999999999994E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="C109" s="1">
-        <v>6.7100000000000007E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="D109" s="1">
-        <v>7.3700000000000002E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="E109" s="1">
-        <v>6.5799999999999997E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="F109" s="1">
-        <v>6.7900000000000002E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="G109" s="1">
-        <v>6.0600000000000001E-2</v>
+        <v>2.98E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1">
-        <v>6.4699999999999994E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="C110" s="1">
-        <v>6.7100000000000007E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="D110" s="1">
-        <v>7.3599999999999999E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="E110" s="1">
-        <v>6.6100000000000006E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="F110" s="1">
-        <v>6.8199999999999997E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="G110" s="1">
-        <v>6.0999999999999999E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1">
-        <v>7.1599999999999997E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="C111" s="1">
-        <v>7.2099999999999997E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="D111" s="1">
-        <v>7.5300000000000006E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E111" s="1">
-        <v>6.8099999999999994E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="F111" s="1">
-        <v>6.9900000000000004E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G111" s="1">
-        <v>6.2700000000000006E-2</v>
+        <v>3.04E-2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B112" s="1">
-        <v>6.25E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="C112" s="1">
-        <v>6.5500000000000003E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="D112" s="1">
-        <v>7.4499999999999997E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E112" s="1">
-        <v>6.7100000000000007E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="F112" s="1">
-        <v>6.88E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="G112" s="1">
-        <v>6.1699999999999998E-2</v>
+        <v>2.98E-2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B113" s="1">
-        <v>6.2399999999999997E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="C113" s="1">
-        <v>6.54E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="D113" s="1">
-        <v>7.4300000000000005E-2</v>
+        <v>3.44E-2</v>
       </c>
       <c r="E113" s="1">
-        <v>6.7299999999999999E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="F113" s="1">
-        <v>6.9199999999999998E-2</v>
+        <v>3.15E-2</v>
       </c>
       <c r="G113" s="1">
-        <v>6.2199999999999998E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1">
-        <v>7.0999999999999994E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C114" s="1">
-        <v>7.1900000000000006E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D114" s="1">
-        <v>7.7299999999999994E-2</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="E114" s="1">
-        <v>7.0199999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F114" s="1">
-        <v>7.1999999999999995E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="G114" s="1">
-        <v>6.4799999999999996E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B115" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="C115" s="1">
-        <v>2.81E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="D115" s="1">
-        <v>4.2500000000000003E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E115" s="1">
-        <v>5.0200000000000002E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="F115" s="1">
-        <v>4.3700000000000003E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="G115" s="1">
-        <v>5.67E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1">
-        <v>2.53E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C116" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="D116" s="1">
-        <v>4.7399999999999998E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E116" s="1">
-        <v>5.67E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="F116" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="G116" s="1">
-        <v>6.4299999999999996E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B117" s="1">
-        <v>2.07E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C117" s="1">
-        <v>2.4899999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D117" s="1">
-        <v>4.36E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="E117" s="1">
-        <v>5.2900000000000003E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="F117" s="1">
-        <v>4.5499999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G117" s="1">
-        <v>6.0400000000000002E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B118" s="1">
-        <v>2.53E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="C118" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="D118" s="1">
-        <v>4.7399999999999998E-2</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="E118" s="1">
-        <v>5.67E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="F118" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="G118" s="1">
-        <v>6.4299999999999996E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119" s="1">
-        <v>2.6200000000000001E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C119" s="1">
-        <v>2.9700000000000001E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="D119" s="1">
-        <v>0.05</v>
+        <v>2.1899999999999999E-2</v>
       </c>
       <c r="E119" s="1">
-        <v>5.9700000000000003E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="F119" s="1">
-        <v>5.1499999999999997E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="G119" s="1">
-        <v>6.7900000000000002E-2</v>
+        <v>3.2599999999999997E-2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B120" s="1">
-        <v>2.0299999999999999E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="C120" s="1">
-        <v>2.4400000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="D120" s="1">
-        <v>4.41E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="E120" s="1">
-        <v>5.3900000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F120" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="G120" s="1">
-        <v>6.1800000000000001E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B121" s="1">
-        <v>2.3300000000000001E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C121" s="1">
-        <v>2.7199999999999998E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D121" s="1">
-        <v>4.6600000000000003E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="E121" s="1">
-        <v>5.6300000000000003E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F121" s="1">
-        <v>4.8300000000000003E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="G121" s="1">
-        <v>6.4299999999999996E-2</v>
+        <v>3.2599999999999997E-2</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B122" s="1">
-        <v>9.1999999999999998E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C122" s="1">
-        <v>1.32E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D122" s="1">
-        <v>1.24E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E122" s="1">
-        <v>1.4800000000000001E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="F122" s="1">
-        <v>1.49E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G122" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B123" s="1">
-        <v>1.11E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C123" s="1">
-        <v>1.47E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="D123" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="E123" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="F123" s="1">
-        <v>1.55E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="G123" s="1">
-        <v>1.6799999999999999E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B124" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="C124" s="1">
-        <v>1.46E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="D124" s="1">
-        <v>1.29E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="E124" s="1">
-        <v>1.5100000000000001E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="F124" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="G124" s="1">
-        <v>1.66E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B125" s="1">
-        <v>9.7999999999999997E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="C125" s="1">
-        <v>1.78E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D125" s="1">
-        <v>1.84E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E125" s="1">
-        <v>2.12E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F125" s="1">
-        <v>2.24E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="G125" s="1">
-        <v>2.29E-2</v>
+        <v>1.14E-2</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B126" s="1">
-        <v>1.32E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="C126" s="1">
-        <v>2.0400000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D126" s="1">
-        <v>1.7600000000000001E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E126" s="1">
-        <v>1.8800000000000001E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F126" s="1">
-        <v>2.0400000000000001E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="G126" s="1">
-        <v>1.9699999999999999E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B127" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="C127" s="1">
-        <v>1.7299999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D127" s="1">
-        <v>1.8100000000000002E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E127" s="1">
-        <v>2.1299999999999999E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="F127" s="1">
-        <v>2.23E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G127" s="1">
-        <v>2.3199999999999998E-2</v>
+        <v>1.12E-2</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B128" s="1">
-        <v>8.5000000000000006E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="C128" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D128" s="1">
-        <v>1.8499999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E128" s="1">
-        <v>2.1999999999999999E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="F128" s="1">
-        <v>2.2599999999999999E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="G128" s="1">
-        <v>2.3800000000000002E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B129" s="1">
-        <v>1.2699999999999999E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="C129" s="1">
-        <v>2.0299999999999999E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="D129" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="E129" s="1">
-        <v>1.9199999999999998E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="F129" s="1">
-        <v>2.0799999999999999E-2</v>
+        <v>1.09E-2</v>
       </c>
       <c r="G129" s="1">
-        <v>2.01E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B130" s="1">
-        <v>7.4999999999999997E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="C130" s="1">
-        <v>1.5900000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D130" s="1">
-        <v>1.7899999999999999E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E130" s="1">
-        <v>2.2100000000000002E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="F130" s="1">
-        <v>2.2499999999999999E-2</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="G130" s="1">
-        <v>2.4299999999999999E-2</v>
+        <v>1.11E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B134" s="1">
-        <v>3.8100000000000002E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="C134" s="1">
-        <v>3.4700000000000002E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="D134" s="1">
-        <v>3.9600000000000003E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="E134" s="1">
-        <v>3.7900000000000003E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="F134" s="1">
-        <v>3.5900000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G134" s="1">
-        <v>3.6400000000000002E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B135" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="C135" s="1">
-        <v>4.9299999999999997E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D135" s="1">
-        <v>4.6899999999999997E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E135" s="1">
-        <v>4.2599999999999999E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="F135" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G135" s="1">
-        <v>0.04</v>
+        <v>2.5899999999999999E-2</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B136" s="1">
-        <v>4.2599999999999999E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="C136" s="1">
-        <v>4.9200000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D136" s="1">
-        <v>4.6800000000000001E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E136" s="1">
-        <v>4.2799999999999998E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F136" s="1">
-        <v>4.2900000000000001E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G136" s="1">
-        <v>4.02E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B137" s="1">
-        <v>4.5400000000000003E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="C137" s="1">
-        <v>5.0599999999999999E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="D137" s="1">
-        <v>4.7699999999999999E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="E137" s="1">
-        <v>4.3799999999999999E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="F137" s="1">
-        <v>4.3900000000000002E-2</v>
+        <v>2.75E-2</v>
       </c>
       <c r="G137" s="1">
-        <v>4.1200000000000001E-2</v>
+        <v>2.64E-2</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B138" s="1">
-        <v>4.1700000000000001E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="C138" s="1">
-        <v>4.9000000000000002E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="D138" s="1">
-        <v>4.7300000000000002E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E138" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F138" s="1">
-        <v>4.3200000000000002E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G138" s="1">
-        <v>4.02E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B139" s="1">
-        <v>4.1500000000000002E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="C139" s="1">
-        <v>4.8800000000000003E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="D139" s="1">
-        <v>4.7199999999999999E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E139" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>2.7400000000000001E-2</v>
       </c>
       <c r="F139" s="1">
-        <v>4.3400000000000001E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="G139" s="1">
-        <v>4.0300000000000002E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B140" s="1">
-        <v>4.4699999999999997E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="C140" s="1">
-        <v>5.0599999999999999E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="D140" s="1">
-        <v>4.8500000000000001E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="E140" s="1">
-        <v>4.4600000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F140" s="1">
-        <v>4.4600000000000001E-2</v>
+        <v>2.7699999999999999E-2</v>
       </c>
       <c r="G140" s="1">
-        <v>4.19E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B141" s="1">
-        <v>1.1599999999999999E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="C141" s="1">
-        <v>1.55E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="D141" s="1">
-        <v>2.7199999999999998E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="E141" s="1">
-        <v>3.4599999999999999E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="F141" s="1">
-        <v>2.8899999999999999E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="G141" s="1">
-        <v>4.0300000000000002E-2</v>
+        <v>2.75E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142" s="1">
-        <v>9.1000000000000004E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="C142" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="D142" s="1">
-        <v>2.86E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E142" s="1">
-        <v>3.6799999999999999E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F142" s="1">
-        <v>3.0700000000000002E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="G142" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1">
-        <v>8.8000000000000005E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C143" s="1">
-        <v>1.4E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D143" s="1">
-        <v>2.7900000000000001E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="E143" s="1">
-        <v>3.5999999999999997E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="F143" s="1">
-        <v>0.03</v>
+        <v>2.01E-2</v>
       </c>
       <c r="G143" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>2.81E-2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B144" s="1">
-        <v>9.1000000000000004E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="C144" s="1">
-        <v>1.4500000000000001E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="D144" s="1">
-        <v>2.86E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="E144" s="1">
-        <v>3.6799999999999999E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="F144" s="1">
-        <v>3.0700000000000002E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="G144" s="1">
-        <v>4.2999999999999997E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145" s="1">
-        <v>8.8999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C145" s="1">
-        <v>1.43E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="D145" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E145" s="1">
-        <v>3.7400000000000003E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="F145" s="1">
-        <v>3.1099999999999999E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="G145" s="1">
-        <v>4.3700000000000003E-2</v>
+        <v>2.86E-2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B146" s="1">
-        <v>8.6E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C146" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D146" s="1">
-        <v>2.81E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="E146" s="1">
-        <v>3.6400000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="F146" s="1">
-        <v>3.0300000000000001E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="G146" s="1">
-        <v>4.2500000000000003E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B147" s="1">
-        <v>9.2999999999999992E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="C147" s="1">
-        <v>1.43E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="D147" s="1">
-        <v>2.8899999999999999E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E147" s="1">
-        <v>3.7100000000000001E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="F147" s="1">
-        <v>3.09E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="G147" s="1">
-        <v>4.3499999999999997E-2</v>
+        <v>2.86E-2</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148" s="1">
-        <v>7.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="C148" s="1">
-        <v>1.12E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="D148" s="1">
-        <v>9.7999999999999997E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E148" s="1">
-        <v>1.2E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F148" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="G148" s="1">
-        <v>1.3299999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B149" s="1">
-        <v>8.6E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C149" s="1">
-        <v>1.23E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="D149" s="1">
-        <v>1.0200000000000001E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E149" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F149" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G149" s="1">
-        <v>1.35E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B150" s="1">
-        <v>8.6E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="C150" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="D150" s="1">
-        <v>1.01E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E150" s="1">
-        <v>1.21E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F150" s="1">
-        <v>1.24E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G150" s="1">
-        <v>1.34E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B151" s="1">
-        <v>8.6999999999999994E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="C151" s="1">
-        <v>1.6500000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D151" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="E151" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F151" s="1">
-        <v>1.5100000000000001E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G151" s="1">
-        <v>1.5100000000000001E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B152" s="1">
-        <v>1.01E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="C152" s="1">
-        <v>1.72E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D152" s="1">
-        <v>1.2200000000000001E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="E152" s="1">
-        <v>1.35E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="F152" s="1">
-        <v>1.44E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="G152" s="1">
-        <v>1.47E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B153" s="1">
-        <v>8.5000000000000006E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="C153" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D153" s="1">
-        <v>1.24E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="E153" s="1">
-        <v>1.37E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F153" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G153" s="1">
-        <v>1.49E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B154" s="1">
-        <v>8.2000000000000007E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="C154" s="1">
-        <v>1.6299999999999999E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="D154" s="1">
-        <v>1.2699999999999999E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="E154" s="1">
-        <v>1.4E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F154" s="1">
-        <v>1.5299999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G154" s="1">
-        <v>1.5100000000000001E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B155" s="1">
-        <v>9.7999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="C155" s="1">
-        <v>1.72E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="D155" s="1">
-        <v>1.23E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="E155" s="1">
-        <v>1.3599999999999999E-2</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="F155" s="1">
-        <v>1.46E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="G155" s="1">
-        <v>1.47E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B156" s="1">
-        <v>8.0000000000000002E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="C156" s="1">
-        <v>1.6199999999999999E-2</v>
+        <v>1.29E-2</v>
       </c>
       <c r="D156" s="1">
-        <v>1.24E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="E156" s="1">
-        <v>1.3899999999999999E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F156" s="1">
-        <v>1.52E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="G156" s="1">
-        <v>1.49E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B159" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B160" s="1">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="C160" s="1">
-        <v>2.69E-2</v>
-      </c>
-      <c r="D160" s="1">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="E160" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F160" s="1">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="G160" s="1">
-        <v>2.81E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B161" s="1">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="C161" s="1">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="D161" s="1">
-        <v>3.44E-2</v>
-      </c>
-      <c r="E161" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="F161" s="1">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="G161" s="1">
-        <v>2.98E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" s="1">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="C162" s="1">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="D162" s="1">
-        <v>3.44E-2</v>
-      </c>
-      <c r="E162" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="F162" s="1">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="G162" s="1">
-        <v>2.9899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B163" s="1">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="C163" s="1">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="D163" s="1">
-        <v>3.49E-2</v>
-      </c>
-      <c r="E163" s="1">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="F163" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G163" s="1">
-        <v>3.04E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" s="1">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="C164" s="1">
-        <v>3.95E-2</v>
-      </c>
-      <c r="D164" s="1">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="E164" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="F164" s="1">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="G164" s="1">
-        <v>2.98E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" s="1">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="C165" s="1">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="D165" s="1">
-        <v>3.44E-2</v>
-      </c>
-      <c r="E165" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="F165" s="1">
-        <v>3.15E-2</v>
-      </c>
-      <c r="G165" s="1">
-        <v>2.9899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B166" s="1">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="C166" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D166" s="1">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="E166" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F166" s="1">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="G166" s="1">
-        <v>3.0700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B167" s="1">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="C167" s="1">
-        <v>1.06E-2</v>
-      </c>
-      <c r="D167" s="1">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E167" s="1">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="F167" s="1">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="G167" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B168" s="1">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="C168" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="D168" s="1">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="E168" s="1">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="F168" s="1">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="G168" s="1">
-        <v>3.2300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B169" s="1">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="C169" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D169" s="1">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="E169" s="1">
-        <v>2.69E-2</v>
-      </c>
-      <c r="F169" s="1">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G169" s="1">
-        <v>3.1899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B170" s="1">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="C170" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="D170" s="1">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="E170" s="1">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="F170" s="1">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="G170" s="1">
-        <v>3.2300000000000002E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B171" s="1">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="C171" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="D171" s="1">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="E171" s="1">
-        <v>2.75E-2</v>
-      </c>
-      <c r="F171" s="1">
-        <v>2.35E-2</v>
-      </c>
-      <c r="G171" s="1">
-        <v>3.2599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B172" s="1">
-        <v>5.3E-3</v>
-      </c>
-      <c r="C172" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D172" s="1">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="E172" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="F172" s="1">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="G172" s="1">
-        <v>3.2099999999999997E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B173" s="1">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C173" s="1">
-        <v>1.01E-2</v>
-      </c>
-      <c r="D173" s="1">
-        <v>2.18E-2</v>
-      </c>
-      <c r="E173" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="F173" s="1">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="G173" s="1">
-        <v>3.2599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B174" s="1">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C174" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="D174" s="1">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="E174" s="1">
         <v>9.7000000000000003E-3</v>
-      </c>
-      <c r="F174" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G174" s="1">
-        <v>1.0699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B175" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C175" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="D175" s="1">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="E175" s="1">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="F175" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="G175" s="1">
-        <v>1.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B176" s="1">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1.01E-2</v>
-      </c>
-      <c r="D176" s="1">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="E176" s="1">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="F176" s="1">
-        <v>1.01E-2</v>
-      </c>
-      <c r="G176" s="1">
-        <v>1.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B177" s="1">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="C177" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D177" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E177" s="1">
-        <v>1.04E-2</v>
-      </c>
-      <c r="F177" s="1">
-        <v>1.09E-2</v>
-      </c>
-      <c r="G177" s="1">
-        <v>1.14E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B178" s="1">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="C178" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D178" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E178" s="1">
-        <v>1.04E-2</v>
-      </c>
-      <c r="F178" s="1">
-        <v>1.09E-2</v>
-      </c>
-      <c r="G178" s="1">
-        <v>1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B179" s="1">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="C179" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D179" s="1">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="E179" s="1">
-        <v>1.03E-2</v>
-      </c>
-      <c r="F179" s="1">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="G179" s="1">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B180" s="1">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="C180" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D180" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E180" s="1">
-        <v>1.03E-2</v>
-      </c>
-      <c r="F180" s="1">
-        <v>1.09E-2</v>
-      </c>
-      <c r="G180" s="1">
-        <v>1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B181" s="1">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="C181" s="1">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="D181" s="1">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="E181" s="1">
-        <v>1.04E-2</v>
-      </c>
-      <c r="F181" s="1">
-        <v>1.09E-2</v>
-      </c>
-      <c r="G181" s="1">
-        <v>1.1299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B182" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="C182" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D182" s="1">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="E182" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="F182" s="1">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="G182" s="1">
-        <v>1.11E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B186" s="1">
-        <v>2.47E-2</v>
-      </c>
-      <c r="C186" s="1">
-        <v>2.4500000000000001E-2</v>
-      </c>
-      <c r="D186" s="1">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="E186" s="1">
-        <v>2.5899999999999999E-2</v>
-      </c>
-      <c r="F186" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G186" s="1">
-        <v>2.4799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B187" s="1">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="C187" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D187" s="1">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="E187" s="1">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="F187" s="1">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="G187" s="1">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" s="1">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="C188" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D188" s="1">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="E188" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="F188" s="1">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="G188" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B189" s="1">
-        <v>2.87E-2</v>
-      </c>
-      <c r="C189" s="1">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="D189" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="E189" s="1">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="F189" s="1">
-        <v>2.75E-2</v>
-      </c>
-      <c r="G189" s="1">
-        <v>2.64E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B190" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="C190" s="1">
-        <v>3.61E-2</v>
-      </c>
-      <c r="D190" s="1">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="E190" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="F190" s="1">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="G190" s="1">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B191" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="C191" s="1">
-        <v>3.61E-2</v>
-      </c>
-      <c r="D191" s="1">
-        <v>2.9399999999999999E-2</v>
-      </c>
-      <c r="E191" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="F191" s="1">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="G191" s="1">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B192" s="1">
-        <v>2.8299999999999999E-2</v>
-      </c>
-      <c r="C192" s="1">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="D192" s="1">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="E192" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F192" s="1">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="G192" s="1">
-        <v>2.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B193" s="1">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="C193" s="1">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="D193" s="1">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="E193" s="1">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="F193" s="1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="G193" s="1">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B194" s="1">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="C194" s="1">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="D194" s="1">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="E194" s="1">
-        <v>2.41E-2</v>
-      </c>
-      <c r="F194" s="1">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="G194" s="1">
-        <v>2.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B195" s="1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="C195" s="1">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="D195" s="1">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E195" s="1">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="F195" s="1">
-        <v>2.01E-2</v>
-      </c>
-      <c r="G195" s="1">
-        <v>2.81E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B196" s="1">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="C196" s="1">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="D196" s="1">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="E196" s="1">
-        <v>2.41E-2</v>
-      </c>
-      <c r="F196" s="1">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="G196" s="1">
-        <v>2.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B197" s="1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="C197" s="1">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="D197" s="1">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="E197" s="1">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="F197" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-      <c r="G197" s="1">
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B198" s="1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="C198" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D198" s="1">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="E198" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F198" s="1">
-        <v>2.01E-2</v>
-      </c>
-      <c r="G198" s="1">
-        <v>2.8199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B199" s="1">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="C199" s="1">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="D199" s="1">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="E199" s="1">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="F199" s="1">
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="G199" s="1">
-        <v>2.86E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B200" s="1">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="C200" s="1">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="D200" s="1">
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="E200" s="1">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="F200" s="1">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="G200" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B201" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C201" s="1">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="D201" s="1">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="E201" s="1">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="F201" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G201" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B202" s="1">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C202" s="1">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="D202" s="1">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="E202" s="1">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="F202" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G202" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B203" s="1">
-        <v>6.6E-3</v>
-      </c>
-      <c r="C203" s="1">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="D203" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="E203" s="1">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="F203" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G203" s="1">
-        <v>9.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B204" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="C204" s="1">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="D204" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="E204" s="1">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F204" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="G204" s="1">
-        <v>9.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B205" s="1">
-        <v>6.6E-3</v>
-      </c>
-      <c r="C205" s="1">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="D205" s="1">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="E205" s="1">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="F205" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G205" s="1">
-        <v>9.7999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B206" s="1">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="C206" s="1">
-        <v>1.29E-2</v>
-      </c>
-      <c r="D206" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="E206" s="1">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="F206" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G206" s="1">
-        <v>9.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B207" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C207" s="1">
-        <v>1.29E-2</v>
-      </c>
-      <c r="D207" s="1">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="E207" s="1">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="F207" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="G207" s="1">
-        <v>9.9000000000000008E-3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B208" s="1">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="C208" s="1">
-        <v>1.29E-2</v>
-      </c>
-      <c r="D208" s="1">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="E208" s="1">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="F208" s="1">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="G208" s="1">
-        <v>9.7000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3861,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055281D7-4355-8A4D-BA4E-C88F7ACEEF66}">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A77" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3873,37 +3868,40 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>4.9200000000000001E-2</v>
@@ -3926,22 +3924,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>4.7300000000000002E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="C5" s="1">
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>4.5499999999999999E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>4.9200000000000001E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="G5" s="1">
         <v>4.2000000000000003E-2</v>
@@ -3949,45 +3947,45 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
-        <v>4.6899999999999997E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="C6" s="1">
         <v>5.3100000000000001E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>5.3400000000000003E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>4.5600000000000002E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>4.9399999999999999E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0099999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="1">
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>5.4199999999999998E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="E7" s="1">
-        <v>4.6699999999999998E-2</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>5.0200000000000002E-2</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="G7" s="1">
         <v>4.3200000000000002E-2</v>
@@ -3995,22 +3993,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>4.7199999999999999E-2</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="C8" s="1">
         <v>5.3400000000000003E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="E8" s="1">
-        <v>4.5499999999999999E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>4.9299999999999997E-2</v>
+        <v>4.9399999999999999E-2</v>
       </c>
       <c r="G8" s="1">
         <v>4.2000000000000003E-2</v>
@@ -4018,45 +4016,45 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>4.6800000000000001E-2</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="C9" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>5.3499999999999999E-2</v>
+        <v>5.3600000000000002E-2</v>
       </c>
       <c r="E9" s="1">
-        <v>4.5600000000000002E-2</v>
+        <v>4.5699999999999998E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>4.9399999999999999E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>5.0099999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C10" s="1">
         <v>5.5199999999999999E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>5.4399999999999997E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="E10" s="1">
-        <v>4.6899999999999997E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="F10" s="1">
-        <v>5.04E-2</v>
+        <v>5.0500000000000003E-2</v>
       </c>
       <c r="G10" s="1">
         <v>4.3499999999999997E-2</v>
@@ -4064,7 +4062,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>1.34E-2</v>
@@ -4087,7 +4085,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>1.0999999999999999E-2</v>
@@ -4110,7 +4108,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1">
         <v>1.0800000000000001E-2</v>
@@ -4128,12 +4126,12 @@
         <v>3.4299999999999997E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>4.5199999999999997E-2</v>
+        <v>4.53E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1">
         <v>1.0999999999999999E-2</v>
@@ -4156,7 +4154,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>1.11E-2</v>
@@ -4165,10 +4163,10 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>3.2199999999999999E-2</v>
+        <v>3.2300000000000002E-2</v>
       </c>
       <c r="E15" s="1">
-        <v>4.0300000000000002E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="F15" s="1">
         <v>3.5000000000000003E-2</v>
@@ -4179,19 +4177,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>1.0800000000000001E-2</v>
       </c>
       <c r="C16" s="1">
-        <v>1.6799999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="E16" s="1">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="F16" s="1">
         <v>3.44E-2</v>
@@ -4202,7 +4200,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>1.15E-2</v>
@@ -4214,7 +4212,7 @@
         <v>3.2399999999999998E-2</v>
       </c>
       <c r="E17" s="1">
-        <v>4.0399999999999998E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F17" s="1">
         <v>3.49E-2</v>
@@ -4225,7 +4223,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>8.3999999999999995E-3</v>
@@ -4248,7 +4246,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>1.26E-2</v>
@@ -4271,7 +4269,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>1.23E-2</v>
@@ -4294,7 +4292,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
         <v>1.01E-2</v>
@@ -4317,7 +4315,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>1.2E-2</v>
@@ -4340,7 +4338,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>9.7000000000000003E-3</v>
@@ -4363,7 +4361,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
         <v>1.01E-2</v>
@@ -4386,7 +4384,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>1.2E-2</v>
@@ -4409,7 +4407,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>9.5999999999999992E-3</v>
@@ -4432,32 +4430,32 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1">
         <v>4.2200000000000001E-2</v>
@@ -4480,7 +4478,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1">
         <v>3.9899999999999998E-2</v>
@@ -4503,10 +4501,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="1">
-        <v>3.9699999999999999E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="C32" s="1">
         <v>4.7E-2</v>
@@ -4518,7 +4516,7 @@
         <v>3.85E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>4.02E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="G32" s="1">
         <v>3.5299999999999998E-2</v>
@@ -4526,7 +4524,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1">
         <v>4.1700000000000001E-2</v>
@@ -4535,13 +4533,13 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>4.4900000000000002E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E33" s="1">
         <v>3.9300000000000002E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>4.0899999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="G33" s="1">
         <v>3.6200000000000003E-2</v>
@@ -4549,7 +4547,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1">
         <v>3.9800000000000002E-2</v>
@@ -4558,7 +4556,7 @@
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>4.4299999999999999E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="E34" s="1">
         <v>3.85E-2</v>
@@ -4572,22 +4570,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1">
-        <v>3.9600000000000003E-2</v>
+        <v>3.95E-2</v>
       </c>
       <c r="C35" s="1">
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>4.4299999999999999E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="E35" s="1">
         <v>3.85E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>4.0300000000000002E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="G35" s="1">
         <v>3.5299999999999998E-2</v>
@@ -4595,16 +4593,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1">
-        <v>4.1700000000000001E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="C36" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="E36" s="1">
         <v>3.95E-2</v>
@@ -4613,12 +4611,12 @@
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="G36" s="1">
-        <v>3.6299999999999999E-2</v>
+        <v>3.6400000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1">
         <v>9.7000000000000003E-3</v>
@@ -4641,7 +4639,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1">
         <v>7.7999999999999996E-3</v>
@@ -4650,7 +4648,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="E38" s="1">
         <v>3.39E-2</v>
@@ -4664,10 +4662,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="C39" s="1">
         <v>1.34E-2</v>
@@ -4682,12 +4680,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="G39" s="1">
-        <v>3.85E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" s="1">
         <v>7.7999999999999996E-3</v>
@@ -4696,7 +4694,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
       <c r="D40" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="E40" s="1">
         <v>3.39E-2</v>
@@ -4710,7 +4708,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1">
         <v>7.7999999999999996E-3</v>
@@ -4725,7 +4723,7 @@
         <v>3.4099999999999998E-2</v>
       </c>
       <c r="F41" s="1">
-        <v>2.9399999999999999E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="G41" s="1">
         <v>3.9100000000000003E-2</v>
@@ -4733,10 +4731,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>7.6E-3</v>
       </c>
       <c r="C42" s="1">
         <v>1.34E-2</v>
@@ -4756,7 +4754,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1">
         <v>8.0000000000000002E-3</v>
@@ -4779,7 +4777,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1">
         <v>7.1999999999999998E-3</v>
@@ -4802,7 +4800,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1">
         <v>1.09E-2</v>
@@ -4825,7 +4823,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1">
         <v>1.0699999999999999E-2</v>
@@ -4848,7 +4846,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1">
         <v>9.1999999999999998E-3</v>
@@ -4871,7 +4869,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1">
         <v>1.04E-2</v>
@@ -4894,7 +4892,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1">
         <v>8.9999999999999993E-3</v>
@@ -4917,7 +4915,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1">
         <v>9.1999999999999998E-3</v>
@@ -4940,7 +4938,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1">
         <v>1.04E-2</v>
@@ -4963,7 +4961,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1">
         <v>8.9999999999999993E-3</v>
@@ -4986,32 +4984,32 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" s="1">
         <v>3.3399999999999999E-2</v>
@@ -5034,19 +5032,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1">
-        <v>3.15E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="C57" s="1">
-        <v>3.85E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="D57" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3099999999999997E-2</v>
       </c>
       <c r="E57" s="1">
-        <v>2.93E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="F57" s="1">
         <v>3.04E-2</v>
@@ -5057,10 +5055,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="C58" s="1">
         <v>3.85E-2</v>
@@ -5080,10 +5078,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B59" s="1">
-        <v>3.2500000000000001E-2</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="C59" s="1">
         <v>3.8899999999999997E-2</v>
@@ -5095,7 +5093,7 @@
         <v>2.98E-2</v>
       </c>
       <c r="F59" s="1">
-        <v>3.0800000000000001E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="G59" s="1">
         <v>2.81E-2</v>
@@ -5103,7 +5101,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1">
         <v>3.15E-2</v>
@@ -5126,10 +5124,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="C61" s="1">
         <v>3.85E-2</v>
@@ -5149,13 +5147,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="C62" s="1">
-        <v>3.8800000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="D62" s="1">
         <v>3.3500000000000002E-2</v>
@@ -5172,7 +5170,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>6.1999999999999998E-3</v>
@@ -5195,10 +5193,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="C64" s="1">
         <v>1.0200000000000001E-2</v>
@@ -5218,7 +5216,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" s="1">
         <v>4.8999999999999998E-3</v>
@@ -5241,10 +5239,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="C66" s="1">
         <v>1.0200000000000001E-2</v>
@@ -5264,7 +5262,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67" s="1">
         <v>5.0000000000000001E-3</v>
@@ -5287,7 +5285,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1">
         <v>4.8999999999999998E-3</v>
@@ -5310,7 +5308,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1">
         <v>5.1000000000000004E-3</v>
@@ -5333,7 +5331,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="1">
         <v>5.8999999999999999E-3</v>
@@ -5356,7 +5354,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71" s="1">
         <v>8.8999999999999999E-3</v>
@@ -5379,7 +5377,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="1">
         <v>8.8000000000000005E-3</v>
@@ -5402,7 +5400,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B73" s="1">
         <v>7.7999999999999996E-3</v>
@@ -5425,7 +5423,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1">
         <v>8.3999999999999995E-3</v>
@@ -5448,7 +5446,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1">
         <v>7.7000000000000002E-3</v>
@@ -5471,7 +5469,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1">
         <v>7.7999999999999996E-3</v>
@@ -5494,7 +5492,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B77" s="1">
         <v>8.3999999999999995E-3</v>
@@ -5517,7 +5515,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78" s="1">
         <v>7.7000000000000002E-3</v>
@@ -5540,32 +5538,32 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1">
         <v>2.5700000000000001E-2</v>
@@ -5588,13 +5586,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="1">
         <v>2.3800000000000002E-2</v>
       </c>
       <c r="C83" s="1">
-        <v>2.9700000000000001E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="D83" s="1">
         <v>2.41E-2</v>
@@ -5611,7 +5609,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B84" s="1">
         <v>2.3699999999999999E-2</v>
@@ -5620,7 +5618,7 @@
         <v>2.98E-2</v>
       </c>
       <c r="D84" s="1">
-        <v>2.4E-2</v>
+        <v>2.41E-2</v>
       </c>
       <c r="E84" s="1">
         <v>2.2200000000000001E-2</v>
@@ -5634,10 +5632,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B85" s="1">
-        <v>2.4299999999999999E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="C85" s="1">
         <v>2.9899999999999999E-2</v>
@@ -5657,13 +5655,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86" s="1">
-        <v>2.3800000000000002E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="C86" s="1">
-        <v>2.9700000000000001E-2</v>
+        <v>2.98E-2</v>
       </c>
       <c r="D86" s="1">
         <v>2.41E-2</v>
@@ -5680,7 +5678,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B87" s="1">
         <v>2.3699999999999999E-2</v>
@@ -5703,7 +5701,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B88" s="1">
         <v>2.4199999999999999E-2</v>
@@ -5726,7 +5724,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B89" s="1">
         <v>3.5999999999999999E-3</v>
@@ -5749,7 +5747,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" s="1">
         <v>2.8E-3</v>
@@ -5772,7 +5770,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B91" s="1">
         <v>2.8E-3</v>
@@ -5795,7 +5793,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B92" s="1">
         <v>2.8E-3</v>
@@ -5818,7 +5816,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1">
         <v>2.8E-3</v>
@@ -5841,7 +5839,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1">
         <v>2.8E-3</v>
@@ -5864,13 +5862,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B95" s="1">
         <v>2.8E-3</v>
       </c>
       <c r="C95" s="1">
-        <v>7.6E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D95" s="1">
         <v>1.5599999999999999E-2</v>
@@ -5887,7 +5885,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B96" s="1">
         <v>4.4999999999999997E-3</v>
@@ -5910,7 +5908,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B97" s="1">
         <v>6.8999999999999999E-3</v>
@@ -5933,7 +5931,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B98" s="1">
         <v>6.7999999999999996E-3</v>
@@ -5956,7 +5954,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B99" s="1">
         <v>6.1999999999999998E-3</v>
@@ -5979,7 +5977,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B100" s="1">
         <v>6.4999999999999997E-3</v>
@@ -6002,7 +6000,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B101" s="1">
         <v>6.1999999999999998E-3</v>
@@ -6025,7 +6023,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B102" s="1">
         <v>6.1999999999999998E-3</v>
@@ -6048,7 +6046,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B103" s="1">
         <v>6.4999999999999997E-3</v>
@@ -6071,7 +6069,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B104" s="1">
         <v>6.1000000000000004E-3</v>
@@ -6094,32 +6092,32 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B108" s="1">
         <v>2.0400000000000001E-2</v>
@@ -6142,7 +6140,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="1">
         <v>1.9E-2</v>
@@ -6165,7 +6163,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1">
         <v>1.9E-2</v>
@@ -6188,13 +6186,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1">
-        <v>1.9300000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="C111" s="1">
-        <v>2.1899999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D111" s="1">
         <v>1.89E-2</v>
@@ -6211,7 +6209,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B112" s="1">
         <v>1.9E-2</v>
@@ -6234,7 +6232,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B113" s="1">
         <v>1.9E-2</v>
@@ -6257,7 +6255,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1">
         <v>1.9199999999999998E-2</v>
@@ -6280,7 +6278,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B115" s="1">
         <v>2.3E-3</v>
@@ -6303,7 +6301,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1">
         <v>1.8E-3</v>
@@ -6326,7 +6324,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B117" s="1">
         <v>1.8E-3</v>
@@ -6341,7 +6339,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="F117" s="1">
-        <v>1.3100000000000001E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="G117" s="1">
         <v>1.7899999999999999E-2</v>
@@ -6349,7 +6347,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B118" s="1">
         <v>1.8E-3</v>
@@ -6372,7 +6370,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119" s="1">
         <v>1.8E-3</v>
@@ -6395,7 +6393,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B120" s="1">
         <v>1.8E-3</v>
@@ -6418,7 +6416,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B121" s="1">
         <v>1.8E-3</v>
@@ -6441,7 +6439,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B122" s="1">
         <v>3.5999999999999999E-3</v>
@@ -6464,7 +6462,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B123" s="1">
         <v>5.4999999999999997E-3</v>
@@ -6487,7 +6485,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B124" s="1">
         <v>5.4999999999999997E-3</v>
@@ -6510,7 +6508,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B125" s="1">
         <v>5.1000000000000004E-3</v>
@@ -6533,7 +6531,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B126" s="1">
         <v>5.1999999999999998E-3</v>
@@ -6556,7 +6554,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B127" s="1">
         <v>5.1000000000000004E-3</v>
@@ -6579,7 +6577,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B128" s="1">
         <v>5.1000000000000004E-3</v>
@@ -6602,7 +6600,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B129" s="1">
         <v>5.1999999999999998E-3</v>
@@ -6625,7 +6623,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B130" s="1">
         <v>5.1000000000000004E-3</v>
@@ -6648,32 +6646,32 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B134" s="1">
         <v>1.8100000000000002E-2</v>
@@ -6696,7 +6694,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B135" s="1">
         <v>1.66E-2</v>
@@ -6719,7 +6717,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B136" s="1">
         <v>1.66E-2</v>
@@ -6742,7 +6740,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B137" s="1">
         <v>1.67E-2</v>
@@ -6765,7 +6763,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B138" s="1">
         <v>1.66E-2</v>
@@ -6788,13 +6786,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B139" s="1">
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="C139" s="1">
-        <v>1.8599999999999998E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="D139" s="1">
         <v>1.67E-2</v>
@@ -6811,7 +6809,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B140" s="1">
         <v>1.67E-2</v>
@@ -6834,7 +6832,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B141" s="1">
         <v>1.8E-3</v>
@@ -6857,7 +6855,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142" s="1">
         <v>1.4E-3</v>
@@ -6880,7 +6878,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1">
         <v>1.4E-3</v>
@@ -6903,7 +6901,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B144" s="1">
         <v>1.4E-3</v>
@@ -6926,7 +6924,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145" s="1">
         <v>1.4E-3</v>
@@ -6949,7 +6947,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B146" s="1">
         <v>1.4E-3</v>
@@ -6972,7 +6970,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B147" s="1">
         <v>1.4E-3</v>
@@ -6995,7 +6993,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148" s="1">
         <v>3.3E-3</v>
@@ -7018,7 +7016,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B149" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7041,7 +7039,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B150" s="1">
         <v>5.0000000000000001E-3</v>
@@ -7064,7 +7062,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B151" s="1">
         <v>4.5999999999999999E-3</v>
@@ -7087,7 +7085,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B152" s="1">
         <v>4.7000000000000002E-3</v>
@@ -7110,7 +7108,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B153" s="1">
         <v>4.4999999999999997E-3</v>
@@ -7133,7 +7131,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B154" s="1">
         <v>4.5999999999999999E-3</v>
@@ -7156,7 +7154,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B155" s="1">
         <v>4.7000000000000002E-3</v>
@@ -7179,7 +7177,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B156" s="1">
         <v>4.4999999999999997E-3</v>
@@ -7202,7 +7200,1273 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C50502-7850-CC4C-835E-D2567957CA66}">
+  <dimension ref="A1:X25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
+        <v>2.98E-2</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1">
+        <v>2.41E-2</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <v>2.98E-2</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
+        <v>2.41E-2</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>2.06E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>2.98E-2</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <v>2.41E-2</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>4.87E-2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>2.98E-2</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>2.0400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1">
+        <v>2.24E-2</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>2.07E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1">
+        <v>1.54E-2</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
+        <v>2.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>1.43E-2</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>3.09E-2</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>4.36E-2</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
+        <v>2.29E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1">
+        <v>6.6E-3</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>1.21E-2</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <v>1.34E-2</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>1.35E-2</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>1.37E-2</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>1.72E-2</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <v>1.52E-2</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <v>1.49E-2</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
+        <v>8.6E-3</v>
       </c>
     </row>
   </sheetData>

--- a/simulation results/standard deviation results.xlsx
+++ b/simulation results/standard deviation results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D9AE03-1373-FF45-9213-5D10DBDE41CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C1CFAD-3283-544A-8212-79615B7913BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="2700" windowWidth="30520" windowHeight="19980" activeTab="2" xr2:uid="{22FB72CD-E3E5-6345-A9B5-87EBA003B620}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="39">
   <si>
     <t>$n150</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>sd.high.mod</t>
+  </si>
+  <si>
+    <t>&amp;</t>
   </si>
 </sst>
 </file>
@@ -7212,13 +7215,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C50502-7850-CC4C-835E-D2567957CA66}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -7228,47 +7254,69 @@
       <c r="B1" s="1">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D1" s="1">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F1" s="1">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H1" s="1">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J1" s="1">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L1" s="1">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N1" s="1">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P1" s="1">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R1" s="1">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T1" s="1">
         <v>2.1600000000000001E-2</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V1" s="1">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X1" s="1">
         <v>0.02</v>
       </c>
@@ -7280,47 +7328,69 @@
       <c r="B2" s="1">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" s="1">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F2" s="1">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H2" s="1">
         <v>4.2700000000000002E-2</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J2" s="1">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L2" s="1">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N2" s="1">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P2" s="1">
         <v>2.98E-2</v>
       </c>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R2" s="1">
         <v>2.41E-2</v>
       </c>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T2" s="1">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V2" s="1">
         <v>2.23E-2</v>
       </c>
-      <c r="W2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X2" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
@@ -7332,47 +7402,69 @@
       <c r="B3" s="1">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="1">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F3" s="1">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="1">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J3" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="1">
         <v>4.02E-2</v>
       </c>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N3" s="1">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="O3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P3" s="1">
         <v>2.98E-2</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R3" s="1">
         <v>2.41E-2</v>
       </c>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T3" s="1">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="U3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V3" s="1">
         <v>2.23E-2</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X3" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
@@ -7384,47 +7476,69 @@
       <c r="B4" s="1">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" s="1">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F4" s="1">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" s="1">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J4" s="1">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L4" s="1">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N4" s="1">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P4" s="1">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R4" s="1">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T4" s="1">
         <v>2.24E-2</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V4" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X4" s="1">
         <v>2.06E-2</v>
       </c>
@@ -7436,47 +7550,69 @@
       <c r="B5" s="1">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="1">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J5" s="1">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L5" s="1">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N5" s="1">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="O5" s="1"/>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P5" s="1">
         <v>2.98E-2</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R5" s="1">
         <v>2.41E-2</v>
       </c>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T5" s="1">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V5" s="1">
         <v>2.23E-2</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X5" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
@@ -7488,47 +7624,69 @@
       <c r="B6" s="1">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="1">
         <v>4.87E-2</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F6" s="1">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" s="1">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J6" s="1">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L6" s="1">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="O6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P6" s="1">
         <v>2.98E-2</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R6" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T6" s="1">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="U6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V6" s="1">
         <v>2.23E-2</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X6" s="1">
         <v>2.0400000000000001E-2</v>
       </c>
@@ -7540,47 +7698,69 @@
       <c r="B7" s="1">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="1">
         <v>5.0599999999999999E-2</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F7" s="1">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="1">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" s="1">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L7" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P7" s="1">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R7" s="1">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T7" s="1">
         <v>2.24E-2</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V7" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X7" s="1">
         <v>2.07E-2</v>
       </c>
@@ -7588,27 +7768,49 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
@@ -7618,47 +7820,69 @@
       <c r="B9" s="1">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D9" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" s="1">
         <v>2.7199999999999998E-2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="1">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J9" s="1">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L9" s="1">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="O9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P9" s="1">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R9" s="1">
         <v>1.54E-2</v>
       </c>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T9" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V9" s="1">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X9" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
@@ -7670,47 +7894,69 @@
       <c r="B10" s="1">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F10" s="1">
         <v>2.86E-2</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" s="1">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J10" s="1">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L10" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P10" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R10" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T10" s="1">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V10" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X10" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
@@ -7722,47 +7968,69 @@
       <c r="B11" s="1">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F11" s="1">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="1">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" s="1">
         <v>0.03</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L11" s="1">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="O11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P11" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R11" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T11" s="1">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V11" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X11" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
@@ -7774,47 +8042,69 @@
       <c r="B12" s="1">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F12" s="1">
         <v>2.86E-2</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" s="1">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J12" s="1">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L12" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="O12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P12" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R12" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T12" s="1">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="U12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V12" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X12" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
@@ -7826,47 +8116,69 @@
       <c r="B13" s="1">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="1">
         <v>1.43E-2</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F13" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" s="1">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="1">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L13" s="1">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="O13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P13" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R13" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T13" s="1">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V13" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X13" s="1">
         <v>2.2800000000000001E-2</v>
       </c>
@@ -7878,47 +8190,69 @@
       <c r="B14" s="1">
         <v>8.6E-3</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="1">
         <v>1.38E-2</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F14" s="1">
         <v>2.81E-2</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="1">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J14" s="1">
         <v>3.0300000000000001E-2</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L14" s="1">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N14" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P14" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R14" s="1">
         <v>1.55E-2</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T14" s="1">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V14" s="1">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X14" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
@@ -7930,47 +8264,69 @@
       <c r="B15" s="1">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="1">
         <v>1.43E-2</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F15" s="1">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" s="1">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J15" s="1">
         <v>3.09E-2</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L15" s="1">
         <v>4.36E-2</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="1">
         <v>2.8E-3</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P15" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R15" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T15" s="1">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V15" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X15" s="1">
         <v>2.29E-2</v>
       </c>
@@ -7978,27 +8334,49 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X16" s="1"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -8008,47 +8386,69 @@
       <c r="B17" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D17" s="1">
         <v>1.12E-2</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="1">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H17" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J17" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="1">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N17" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P17" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R17" s="1">
         <v>6.6E-3</v>
       </c>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T17" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V17" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X17" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
@@ -8060,47 +8460,69 @@
       <c r="B18" s="1">
         <v>8.6E-3</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D18" s="1">
         <v>1.23E-2</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="1">
         <v>1.0200000000000001E-2</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J18" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L18" s="1">
         <v>1.35E-2</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N18" s="1">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P18" s="1">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R18" s="1">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T18" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V18" s="1">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X18" s="1">
         <v>8.6E-3</v>
       </c>
@@ -8112,47 +8534,69 @@
       <c r="B19" s="1">
         <v>8.6E-3</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F19" s="1">
         <v>1.01E-2</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H19" s="1">
         <v>1.21E-2</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J19" s="1">
         <v>1.24E-2</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L19" s="1">
         <v>1.34E-2</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N19" s="1">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="O19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P19" s="1">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R19" s="1">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T19" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U19" s="1"/>
+      <c r="U19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V19" s="1">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X19" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
@@ -8164,47 +8608,69 @@
       <c r="B20" s="1">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="1">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="1">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H20" s="1">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J20" s="1">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L20" s="1">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N20" s="1">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="O20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P20" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R20" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T20" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="U20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V20" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X20" s="1">
         <v>8.6E-3</v>
       </c>
@@ -8216,47 +8682,69 @@
       <c r="B21" s="1">
         <v>1.01E-2</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D21" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" s="1">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H21" s="1">
         <v>1.35E-2</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J21" s="1">
         <v>1.44E-2</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L21" s="1">
         <v>1.47E-2</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N21" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="O21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P21" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="Q21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R21" s="1">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T21" s="1">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="U21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V21" s="1">
         <v>8.6E-3</v>
       </c>
-      <c r="W21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X21" s="1">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -8268,47 +8756,69 @@
       <c r="B22" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D22" s="1">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="1">
         <v>1.24E-2</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H22" s="1">
         <v>1.37E-2</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J22" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L22" s="1">
         <v>1.49E-2</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N22" s="1">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="O22" s="1"/>
+      <c r="O22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P22" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="Q22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R22" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T22" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="U22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V22" s="1">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="W22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X22" s="1">
         <v>8.6E-3</v>
       </c>
@@ -8320,47 +8830,69 @@
       <c r="B23" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D23" s="1">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F23" s="1">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="1">
         <v>1.4E-2</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J23" s="1">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L23" s="1">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N23" s="1">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="O23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P23" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="Q23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R23" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T23" s="1">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="U23" s="1"/>
+      <c r="U23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V23" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="W23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X23" s="1">
         <v>8.6E-3</v>
       </c>
@@ -8372,47 +8904,69 @@
       <c r="B24" s="1">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="1">
         <v>1.72E-2</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" s="1">
         <v>1.23E-2</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H24" s="1">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J24" s="1">
         <v>1.46E-2</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L24" s="1">
         <v>1.47E-2</v>
       </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N24" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P24" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="Q24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R24" s="1">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="S24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T24" s="1">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V24" s="1">
         <v>8.6E-3</v>
       </c>
-      <c r="W24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X24" s="1">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -8424,47 +8978,69 @@
       <c r="B25" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D25" s="1">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F25" s="1">
         <v>1.24E-2</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" s="1">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J25" s="1">
         <v>1.52E-2</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L25" s="1">
         <v>1.49E-2</v>
       </c>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="N25" s="1">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P25" s="1">
         <v>1.11E-2</v>
       </c>
-      <c r="Q25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R25" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="T25" s="1">
         <v>8.0999999999999996E-3</v>
       </c>
-      <c r="U25" s="1"/>
+      <c r="U25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V25" s="1">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="W25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="X25" s="1">
         <v>8.6E-3</v>
       </c>

--- a/simulation results/standard deviation results.xlsx
+++ b/simulation results/standard deviation results.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xijuan/local-fit-indices2/simulation results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C1CFAD-3283-544A-8212-79615B7913BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4DE2D1-E2EE-3842-B95F-961627523577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2700" windowWidth="30520" windowHeight="19980" activeTab="2" xr2:uid="{22FB72CD-E3E5-6345-A9B5-87EBA003B620}"/>
+    <workbookView xWindow="16680" yWindow="1240" windowWidth="30520" windowHeight="19980" activeTab="1" xr2:uid="{22FB72CD-E3E5-6345-A9B5-87EBA003B620}"/>
   </bookViews>
   <sheets>
     <sheet name="original model" sheetId="1" r:id="rId1"/>
     <sheet name="high reliabiity model" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="47">
   <si>
     <t>$n150</t>
   </si>
@@ -154,7 +153,31 @@
     <t>sd.high.mod</t>
   </si>
   <si>
-    <t>&amp;</t>
+    <t>HS1</t>
+  </si>
+  <si>
+    <t>HS2</t>
+  </si>
+  <si>
+    <t>HS3</t>
+  </si>
+  <si>
+    <t>HS4</t>
+  </si>
+  <si>
+    <t>HS5</t>
+  </si>
+  <si>
+    <t>HS6</t>
+  </si>
+  <si>
+    <t>srmr.default.adj.unstr (HS V1)</t>
+  </si>
+  <si>
+    <t>srmr.default.adj.str (HS V2)</t>
+  </si>
+  <si>
+    <t>srmr.unadj (HS)</t>
   </si>
 </sst>
 </file>
@@ -211,6 +234,193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>24678</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="636072" cy="181460"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A2DED2-E84A-73E6-8B8C-73547ADE36A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="16804891"/>
+              <a:ext cx="636072" cy="181460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̂"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑅𝑀𝑆𝐸𝐴</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-CA" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝐻𝑆</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:acc>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A2DED2-E84A-73E6-8B8C-73547ADE36A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="16804891"/>
+              <a:ext cx="636072" cy="181460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅𝑀𝑆𝐸𝐴</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ) ̂</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3859,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055281D7-4355-8A4D-BA4E-C88F7ACEEF66}">
   <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:G104"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5546,28 +5756,25 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>20</v>
-      </c>
       <c r="B82" s="1">
         <v>2.5700000000000001E-2</v>
       </c>
@@ -5888,7 +6095,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B96" s="1">
         <v>4.4999999999999997E-3</v>
@@ -5911,7 +6118,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B97" s="1">
         <v>6.8999999999999999E-3</v>
@@ -5934,7 +6141,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B98" s="1">
         <v>6.7999999999999996E-3</v>
@@ -7208,1844 +7415,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C50502-7850-CC4C-835E-D2567957CA66}">
-  <dimension ref="A1:X25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3.8100000000000002E-2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="1">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1">
-        <v>2.3300000000000001E-2</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2.1600000000000001E-2</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V1" s="1">
-        <v>2.1499999999999998E-2</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="1">
-        <v>2.3800000000000002E-2</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1">
-        <v>2.41E-2</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="1">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1">
-        <v>2.23E-2</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="1">
-        <v>4.02E-2</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2.41E-2</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2.23E-2</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="1">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="1">
-        <v>2.24E-2</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="1">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X4" s="1">
-        <v>2.06E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4.3200000000000002E-2</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2.41E-2</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="1">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="1">
-        <v>2.23E-2</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.87E-2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="1">
-        <v>2.3699999999999999E-2</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="1">
-        <v>2.98E-2</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="1">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="1">
-        <v>2.23E-2</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="1">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.0599999999999999E-2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2.4199999999999999E-2</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="1">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2.24E-2</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="1">
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="1">
-        <v>2.07E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.1599999999999999E-2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="1">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1.54E-2</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="1">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" s="1">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.86E-2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="1">
-        <v>7.6E-3</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" s="1">
-        <v>2.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="1">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="1">
-        <v>7.6E-3</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="1">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" s="1">
-        <v>2.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.86E-2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="1">
-        <v>7.6E-3</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" s="1">
-        <v>2.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.43E-2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3.7400000000000003E-2</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4.3700000000000003E-2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P13" s="1">
-        <v>7.6E-3</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X13" s="1">
-        <v>2.2800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8.6E-3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.38E-2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.81E-2</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="1">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="1">
-        <v>7.6E-3</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1.55E-2</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X14" s="1">
-        <v>2.2700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.43E-2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="1">
-        <v>3.09E-2</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="1">
-        <v>4.36E-2</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="1">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1.9900000000000001E-2</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X15" s="1">
-        <v>2.29E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X16" s="1"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.12E-2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="1">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="1">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" s="1">
-        <v>6.6E-3</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T17" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="1">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X17" s="1">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1">
-        <v>8.6E-3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.23E-2</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="1">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" s="1">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T18" s="1">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V18" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X18" s="1">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8.6E-3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.01E-2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.21E-2</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.24E-2</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1.34E-2</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="1">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" s="1">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T19" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="1">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X19" s="1">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="1">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="1">
-        <v>1.11E-2</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T20" s="1">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V20" s="1">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X20" s="1">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.01E-2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.72E-2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.35E-2</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.44E-2</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.47E-2</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="1">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1.11E-2</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T21" s="1">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V21" s="1">
-        <v>8.6E-3</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X21" s="1">
-        <v>8.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.24E-2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.37E-2</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.49E-2</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="1">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1.11E-2</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T22" s="1">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V22" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X22" s="1">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="1">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="1">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1.11E-2</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R23" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T23" s="1">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V23" s="1">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X23" s="1">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1">
-        <v>9.7999999999999997E-3</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.72E-2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1.23E-2</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.46E-2</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="1">
-        <v>1.47E-2</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="1">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1.11E-2</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" s="1">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T24" s="1">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V24" s="1">
-        <v>8.6E-3</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X24" s="1">
-        <v>8.6999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.24E-2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1.52E-2</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="1">
-        <v>1.49E-2</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="1">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1.11E-2</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" s="1">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="1">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V25" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X25" s="1">
-        <v>8.6E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>